--- a/Data/Workbooks/2_best_matches_list.xlsx
+++ b/Data/Workbooks/2_best_matches_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynko\Desktop\Thesis\Data\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD85045D-2A96-4FB5-91ED-6AD131BB90F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040038F-47FC-4A9F-8475-A66E30068FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,48 +242,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,21 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -332,53 +279,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,196 +304,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,168 +331,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1084,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +776,7 @@
         <v>1.1664865683922401</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -1245,7 +826,7 @@
         <v>1.2278888191292101</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1261,7 +842,7 @@
       <c r="E4">
         <v>409</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G4">
@@ -1295,7 +876,7 @@
         <v>1.22552407791125</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1345,14 +926,14 @@
         <v>1.1916521787577301</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6">
         <v>409</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6">
@@ -1395,7 +976,7 @@
         <v>1.1847634839916299</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>107</v>
       </c>
@@ -2252,7 +1833,7 @@
       <c r="B24">
         <v>505</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D24">
@@ -2261,7 +1842,7 @@
       <c r="E24">
         <v>504</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G24">
@@ -2311,7 +1892,7 @@
       <c r="E25">
         <v>303</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G25">
@@ -5610,7 +5191,7 @@
       </c>
       <c r="Q90" s="4"/>
     </row>
-    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1007</v>
       </c>
@@ -5661,7 +5242,7 @@
       </c>
       <c r="Q91" s="4"/>
     </row>
-    <row r="92" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1010</v>
       </c>
@@ -5677,7 +5258,7 @@
       <c r="E92">
         <v>409</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G92">
@@ -5712,7 +5293,7 @@
       </c>
       <c r="Q92" s="4"/>
     </row>
-    <row r="93" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1098</v>
       </c>
@@ -5880,7 +5461,7 @@
       <c r="E96">
         <v>608</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G96">
@@ -6872,7 +6453,7 @@
       <c r="B116">
         <v>109</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D116">
@@ -7171,7 +6752,7 @@
       </c>
       <c r="Q121" s="4"/>
     </row>
-    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1408</v>
       </c>
@@ -7222,7 +6803,7 @@
       </c>
       <c r="Q122" s="4"/>
     </row>
-    <row r="123" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1409</v>
       </c>
@@ -7238,7 +6819,7 @@
       <c r="E123">
         <v>409</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G123">
@@ -7273,7 +6854,7 @@
       </c>
       <c r="Q123" s="4"/>
     </row>
-    <row r="124" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1498</v>
       </c>
@@ -7493,7 +7074,7 @@
       <c r="E128">
         <v>405</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G128">
@@ -8406,7 +7987,7 @@
       <c r="E146">
         <v>412</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G146">
@@ -9106,7 +8687,7 @@
       <c r="E160">
         <v>413</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G160">
@@ -9897,7 +9478,7 @@
       <c r="B176">
         <v>404</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D176">
@@ -10819,7 +10400,7 @@
         <v>65</v>
       </c>
       <c r="J194">
-        <v>1.2737486838182699</v>
+        <v>1.2737486838182701</v>
       </c>
       <c r="K194">
         <v>702</v>
@@ -10906,7 +10487,7 @@
       <c r="E196">
         <v>413</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G196">
@@ -11702,7 +11283,7 @@
       <c r="B212">
         <v>203</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D212">

--- a/Data/Workbooks/2_best_matches_list.xlsx
+++ b/Data/Workbooks/2_best_matches_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynko\Desktop\Thesis\Data\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040038F-47FC-4A9F-8475-A66E30068FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EF08A-62DA-4EBC-84E7-0478871A8AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="73">
   <si>
     <t>CAP</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Peace</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -665,15 +668,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -751,7 +756,7 @@
       <c r="H2">
         <v>305</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J2">
@@ -760,7 +765,7 @@
       <c r="K2">
         <v>203</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M2">
@@ -769,7 +774,7 @@
       <c r="N2">
         <v>414</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P2">
@@ -801,7 +806,7 @@
       <c r="H3">
         <v>409</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J3">
@@ -810,7 +815,7 @@
       <c r="K3">
         <v>414</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M3">
@@ -819,7 +824,7 @@
       <c r="N3">
         <v>410</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P3">
@@ -851,7 +856,7 @@
       <c r="H4">
         <v>416</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J4">
@@ -860,7 +865,7 @@
       <c r="K4">
         <v>404</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4">
@@ -869,7 +874,7 @@
       <c r="N4">
         <v>701</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P4">
@@ -901,7 +906,7 @@
       <c r="H5">
         <v>109</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J5">
@@ -910,7 +915,7 @@
       <c r="K5">
         <v>203</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M5">
@@ -919,7 +924,7 @@
       <c r="N5">
         <v>301</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P5">
@@ -951,7 +956,7 @@
       <c r="H6">
         <v>606</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J6">
@@ -960,7 +965,7 @@
       <c r="K6">
         <v>504</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6">
@@ -969,7 +974,7 @@
       <c r="N6">
         <v>502</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6">
@@ -1001,7 +1006,7 @@
       <c r="H7">
         <v>605</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J7">
@@ -1010,7 +1015,7 @@
       <c r="K7">
         <v>608</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M7">
@@ -1019,7 +1024,7 @@
       <c r="N7">
         <v>203</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P7">
@@ -1051,7 +1056,7 @@
       <c r="H8">
         <v>410</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J8">
@@ -1060,7 +1065,7 @@
       <c r="K8">
         <v>414</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M8">
@@ -1069,7 +1074,7 @@
       <c r="N8">
         <v>203</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P8">
@@ -1101,7 +1106,7 @@
       <c r="H9">
         <v>401</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J9">
@@ -1110,7 +1115,7 @@
       <c r="K9">
         <v>403</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M9">
@@ -1119,7 +1124,7 @@
       <c r="N9">
         <v>701</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P9">
@@ -1151,7 +1156,7 @@
       <c r="H10">
         <v>408</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J10">
@@ -1160,7 +1165,7 @@
       <c r="K10">
         <v>302</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M10">
@@ -1169,7 +1174,7 @@
       <c r="N10">
         <v>203</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P10">
@@ -1201,7 +1206,7 @@
       <c r="H11">
         <v>606</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J11">
@@ -1210,7 +1215,7 @@
       <c r="K11">
         <v>503</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M11">
@@ -1219,7 +1224,7 @@
       <c r="N11">
         <v>607</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P11">
@@ -1251,7 +1256,7 @@
       <c r="H12">
         <v>607</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J12">
@@ -1260,7 +1265,7 @@
       <c r="K12">
         <v>302</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M12">
@@ -1269,7 +1274,7 @@
       <c r="N12">
         <v>603</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="P12">
@@ -1301,7 +1306,7 @@
       <c r="H13">
         <v>608</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J13">
@@ -1310,7 +1315,7 @@
       <c r="K13">
         <v>607</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M13">
@@ -1319,7 +1324,7 @@
       <c r="N13">
         <v>603</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="P13">
@@ -1351,7 +1356,7 @@
       <c r="H14">
         <v>408</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J14">
@@ -1360,7 +1365,7 @@
       <c r="K14">
         <v>404</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M14">
@@ -1369,7 +1374,7 @@
       <c r="N14">
         <v>204</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P14">
@@ -1401,7 +1406,7 @@
       <c r="H15">
         <v>603</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J15">
@@ -1410,7 +1415,7 @@
       <c r="K15">
         <v>504</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M15">
@@ -1419,7 +1424,7 @@
       <c r="N15">
         <v>607</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P15">
@@ -1451,7 +1456,7 @@
       <c r="H16">
         <v>304</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J16">
@@ -1460,7 +1465,7 @@
       <c r="K16">
         <v>507</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M16">
@@ -1469,7 +1474,7 @@
       <c r="N16">
         <v>406</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="P16">
@@ -1501,7 +1506,7 @@
       <c r="H17">
         <v>604</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J17">
@@ -1510,7 +1515,7 @@
       <c r="K17">
         <v>607</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M17">
@@ -1519,7 +1524,7 @@
       <c r="N17">
         <v>202</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P17">
@@ -1551,7 +1556,7 @@
       <c r="H18">
         <v>303</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J18">
@@ -1560,7 +1565,7 @@
       <c r="K18">
         <v>412</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M18">
@@ -1569,7 +1574,7 @@
       <c r="N18">
         <v>404</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P18">
@@ -1601,7 +1606,7 @@
       <c r="H19">
         <v>202</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J19">
@@ -1610,7 +1615,7 @@
       <c r="K19">
         <v>302</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M19">
@@ -1619,7 +1624,7 @@
       <c r="N19">
         <v>602</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="P19">
@@ -1651,7 +1656,7 @@
       <c r="H20">
         <v>606</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J20">
@@ -1660,7 +1665,7 @@
       <c r="K20">
         <v>204</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M20">
@@ -1669,7 +1674,7 @@
       <c r="N20">
         <v>413</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P20">
@@ -1701,7 +1706,7 @@
       <c r="H21">
         <v>305</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J21">
@@ -1710,7 +1715,7 @@
       <c r="K21">
         <v>303</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M21">
@@ -1719,7 +1724,7 @@
       <c r="N21">
         <v>413</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P21">
@@ -1751,7 +1756,7 @@
       <c r="H22">
         <v>408</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J22">
@@ -1760,7 +1765,7 @@
       <c r="K22">
         <v>506</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M22">
@@ -1769,7 +1774,7 @@
       <c r="N22">
         <v>414</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P22">
@@ -1801,7 +1806,7 @@
       <c r="H23">
         <v>412</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J23">
@@ -1810,7 +1815,7 @@
       <c r="K23">
         <v>409</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M23">
@@ -1819,7 +1824,7 @@
       <c r="N23">
         <v>303</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P23">
@@ -1851,7 +1856,7 @@
       <c r="H24">
         <v>411</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J24">
@@ -1860,7 +1865,7 @@
       <c r="K24">
         <v>507</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M24">
@@ -1869,7 +1874,7 @@
       <c r="N24">
         <v>506</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P24">
@@ -1901,7 +1906,7 @@
       <c r="H25">
         <v>507</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J25">
@@ -1910,7 +1915,7 @@
       <c r="K25">
         <v>411</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M25">
@@ -1919,7 +1924,7 @@
       <c r="N25">
         <v>506</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P25">
@@ -1951,7 +1956,7 @@
       <c r="H26">
         <v>414</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J26">
@@ -1960,7 +1965,7 @@
       <c r="K26">
         <v>401</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M26">
@@ -1969,7 +1974,7 @@
       <c r="N26">
         <v>402</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P26">
@@ -2001,7 +2006,7 @@
       <c r="H27">
         <v>505</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J27">
@@ -2010,7 +2015,7 @@
       <c r="K27">
         <v>304</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M27">
@@ -2019,7 +2024,7 @@
       <c r="N27">
         <v>605</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P27">
@@ -2051,7 +2056,7 @@
       <c r="H28">
         <v>505</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J28">
@@ -2060,7 +2065,7 @@
       <c r="K28">
         <v>402</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M28">
@@ -2069,7 +2074,7 @@
       <c r="N28">
         <v>704</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P28">
@@ -2101,7 +2106,7 @@
       <c r="H29">
         <v>204</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J29">
@@ -2110,7 +2115,7 @@
       <c r="K29">
         <v>415</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M29">
@@ -2119,7 +2124,7 @@
       <c r="N29">
         <v>203</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P29">
@@ -2151,7 +2156,7 @@
       <c r="H30">
         <v>706</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J30">
@@ -2160,7 +2165,7 @@
       <c r="K30">
         <v>507</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M30">
@@ -2169,7 +2174,7 @@
       <c r="N30">
         <v>503</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P30">
@@ -2201,7 +2206,7 @@
       <c r="H31">
         <v>503</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J31">
@@ -2210,7 +2215,7 @@
       <c r="K31">
         <v>703</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M31">
@@ -2219,7 +2224,7 @@
       <c r="N31">
         <v>502</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P31">
@@ -2251,7 +2256,7 @@
       <c r="H32">
         <v>303</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J32">
@@ -2260,7 +2265,7 @@
       <c r="K32">
         <v>411</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M32">
@@ -2269,7 +2274,7 @@
       <c r="N32">
         <v>503</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P32">
@@ -2301,7 +2306,7 @@
       <c r="H33">
         <v>414</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J33">
@@ -2310,7 +2315,7 @@
       <c r="K33">
         <v>203</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M33">
@@ -2319,7 +2324,7 @@
       <c r="N33">
         <v>504</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P33">
@@ -2351,7 +2356,7 @@
       <c r="H34">
         <v>503</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J34">
@@ -2360,7 +2365,7 @@
       <c r="K34">
         <v>411</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M34">
@@ -2369,7 +2374,7 @@
       <c r="N34">
         <v>505</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P34">
@@ -2401,7 +2406,7 @@
       <c r="H35">
         <v>503</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J35">
@@ -2410,7 +2415,7 @@
       <c r="K35">
         <v>411</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M35">
@@ -2419,7 +2424,7 @@
       <c r="N35">
         <v>505</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P35">
@@ -2451,7 +2456,7 @@
       <c r="H36">
         <v>416</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J36">
@@ -2460,7 +2465,7 @@
       <c r="K36">
         <v>411</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M36">
@@ -2469,7 +2474,7 @@
       <c r="N36">
         <v>507</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P36">
@@ -2501,7 +2506,7 @@
       <c r="H37">
         <v>703</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J37">
@@ -2510,7 +2515,7 @@
       <c r="K37">
         <v>506</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M37">
@@ -2519,7 +2524,7 @@
       <c r="N37">
         <v>411</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P37">
@@ -2551,7 +2556,7 @@
       <c r="H38">
         <v>305</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J38">
@@ -2560,7 +2565,7 @@
       <c r="K38">
         <v>405</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M38">
@@ -2569,7 +2574,7 @@
       <c r="N38">
         <v>303</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P38">
@@ -2601,7 +2606,7 @@
       <c r="H39">
         <v>703</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J39">
@@ -2610,7 +2615,7 @@
       <c r="K39">
         <v>407</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M39">
@@ -2619,7 +2624,7 @@
       <c r="N39">
         <v>109</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P39">
@@ -2651,7 +2656,7 @@
       <c r="H40">
         <v>404</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J40">
@@ -2660,7 +2665,7 @@
       <c r="K40">
         <v>405</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M40">
@@ -2669,7 +2674,7 @@
       <c r="N40">
         <v>412</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P40">
@@ -2701,7 +2706,7 @@
       <c r="H41">
         <v>406</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J41">
@@ -2710,7 +2715,7 @@
       <c r="K41">
         <v>501</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M41">
@@ -2719,7 +2724,7 @@
       <c r="N41">
         <v>408</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P41">
@@ -2742,7 +2747,7 @@
       <c r="E42">
         <v>403</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G42">
@@ -2751,7 +2756,7 @@
       <c r="H42">
         <v>410</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J42">
@@ -2760,7 +2765,7 @@
       <c r="K42">
         <v>408</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M42">
@@ -2769,7 +2774,7 @@
       <c r="N42">
         <v>401</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P42">
@@ -2801,7 +2806,7 @@
       <c r="H43">
         <v>401</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J43">
@@ -2810,7 +2815,7 @@
       <c r="K43">
         <v>703</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M43">
@@ -2819,7 +2824,7 @@
       <c r="N43">
         <v>201</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P43">
@@ -2851,7 +2856,7 @@
       <c r="H44">
         <v>501</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J44">
@@ -2860,7 +2865,7 @@
       <c r="K44">
         <v>416</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M44">
@@ -2869,7 +2874,7 @@
       <c r="N44">
         <v>502</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P44">
@@ -2901,7 +2906,7 @@
       <c r="H45">
         <v>507</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J45">
@@ -2910,7 +2915,7 @@
       <c r="K45">
         <v>411</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M45">
@@ -2919,7 +2924,7 @@
       <c r="N45">
         <v>410</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P45">
@@ -2951,7 +2956,7 @@
       <c r="H46">
         <v>607</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J46">
@@ -2960,7 +2965,7 @@
       <c r="K46">
         <v>404</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M46">
@@ -2969,7 +2974,7 @@
       <c r="N46">
         <v>302</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P46">
@@ -3001,7 +3006,7 @@
       <c r="H47">
         <v>405</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J47">
@@ -3010,7 +3015,7 @@
       <c r="K47">
         <v>303</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M47">
@@ -3019,7 +3024,7 @@
       <c r="N47">
         <v>414</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P47">
@@ -3051,7 +3056,7 @@
       <c r="H48">
         <v>407</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J48">
@@ -3060,7 +3065,7 @@
       <c r="K48">
         <v>503</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M48">
@@ -3069,7 +3074,7 @@
       <c r="N48">
         <v>403</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P48">
@@ -3101,7 +3106,7 @@
       <c r="H49">
         <v>701</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J49">
@@ -3110,7 +3115,7 @@
       <c r="K49">
         <v>504</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M49">
@@ -3119,7 +3124,7 @@
       <c r="N49">
         <v>412</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P49">
@@ -3151,7 +3156,7 @@
       <c r="H50">
         <v>402</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J50">
@@ -3160,7 +3165,7 @@
       <c r="K50">
         <v>408</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M50">
@@ -3169,7 +3174,7 @@
       <c r="N50">
         <v>504</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P50">
@@ -3201,7 +3206,7 @@
       <c r="H51">
         <v>108</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J51">
@@ -3210,7 +3215,7 @@
       <c r="K51">
         <v>102</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M51">
@@ -3219,7 +3224,7 @@
       <c r="N51">
         <v>404</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P51">
@@ -3251,7 +3256,7 @@
       <c r="H52">
         <v>605</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J52">
@@ -3260,7 +3265,7 @@
       <c r="K52">
         <v>503</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M52">
@@ -3269,7 +3274,7 @@
       <c r="N52">
         <v>402</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P52">
@@ -3301,7 +3306,7 @@
       <c r="H53">
         <v>503</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J53">
@@ -3310,7 +3315,7 @@
       <c r="K53">
         <v>706</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M53">
@@ -3319,7 +3324,7 @@
       <c r="N53">
         <v>411</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P53">
@@ -3351,7 +3356,7 @@
       <c r="H54">
         <v>706</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J54">
@@ -3360,7 +3365,7 @@
       <c r="K54">
         <v>503</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M54">
@@ -3369,7 +3374,7 @@
       <c r="N54">
         <v>703</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P54">
@@ -3401,7 +3406,7 @@
       <c r="H55">
         <v>203</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J55">
@@ -3410,7 +3415,7 @@
       <c r="K55">
         <v>414</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M55">
@@ -3419,7 +3424,7 @@
       <c r="N55">
         <v>301</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P55">
@@ -3451,7 +3456,7 @@
       <c r="H56">
         <v>507</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J56">
@@ -3460,7 +3465,7 @@
       <c r="K56">
         <v>303</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M56">
@@ -3469,7 +3474,7 @@
       <c r="N56">
         <v>302</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P56">
@@ -3501,7 +3506,7 @@
       <c r="H57">
         <v>506</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J57">
@@ -3510,7 +3515,7 @@
       <c r="K57">
         <v>411</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M57">
@@ -3519,7 +3524,7 @@
       <c r="N57">
         <v>505</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P57">
@@ -3551,7 +3556,7 @@
       <c r="H58">
         <v>607</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J58">
@@ -3560,7 +3565,7 @@
       <c r="K58">
         <v>505</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M58">
@@ -3569,7 +3574,7 @@
       <c r="N58">
         <v>504</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P58">
@@ -3601,7 +3606,7 @@
       <c r="H59">
         <v>506</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J59">
@@ -3610,7 +3615,7 @@
       <c r="K59">
         <v>411</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M59">
@@ -3619,7 +3624,7 @@
       <c r="N59">
         <v>504</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P59">
@@ -3651,7 +3656,7 @@
       <c r="H60">
         <v>411</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J60">
@@ -3660,7 +3665,7 @@
       <c r="K60">
         <v>706</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M60">
@@ -3669,7 +3674,7 @@
       <c r="N60">
         <v>504</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P60">
@@ -3701,7 +3706,7 @@
       <c r="H61">
         <v>705</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J61">
@@ -3710,7 +3715,7 @@
       <c r="K61">
         <v>507</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="M61">
@@ -3719,7 +3724,7 @@
       <c r="N61">
         <v>706</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P61">
@@ -3751,7 +3756,7 @@
       <c r="H62">
         <v>507</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J62">
@@ -3760,7 +3765,7 @@
       <c r="K62">
         <v>408</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M62">
@@ -3769,7 +3774,7 @@
       <c r="N62">
         <v>107</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="P62">
@@ -3801,7 +3806,7 @@
       <c r="H63">
         <v>416</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J63">
@@ -3810,7 +3815,7 @@
       <c r="K63">
         <v>506</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M63">
@@ -3819,7 +3824,7 @@
       <c r="N63">
         <v>410</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P63">
@@ -3851,7 +3856,7 @@
       <c r="H64">
         <v>203</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J64">
@@ -3860,7 +3865,7 @@
       <c r="K64">
         <v>109</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M64">
@@ -3869,7 +3874,7 @@
       <c r="N64">
         <v>506</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P64">
@@ -3901,7 +3906,7 @@
       <c r="H65">
         <v>303</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J65">
@@ -3910,7 +3915,7 @@
       <c r="K65">
         <v>302</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M65">
@@ -3919,7 +3924,7 @@
       <c r="N65">
         <v>405</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P65">
@@ -3951,7 +3956,7 @@
       <c r="H66">
         <v>402</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J66">
@@ -3960,7 +3965,7 @@
       <c r="K66">
         <v>607</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M66">
@@ -3969,7 +3974,7 @@
       <c r="N66">
         <v>416</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P66">
@@ -4001,7 +4006,7 @@
       <c r="H67">
         <v>305</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J67">
@@ -4010,7 +4015,7 @@
       <c r="K67">
         <v>501</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1" t="s">
         <v>61</v>
       </c>
       <c r="M67">
@@ -4019,7 +4024,7 @@
       <c r="N67">
         <v>414</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P67">
@@ -4051,7 +4056,7 @@
       <c r="H68">
         <v>702</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J68">
@@ -4060,7 +4065,7 @@
       <c r="K68">
         <v>504</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M68">
@@ -4069,7 +4074,7 @@
       <c r="N68">
         <v>411</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P68">
@@ -4101,7 +4106,7 @@
       <c r="H69">
         <v>412</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J69">
@@ -4110,7 +4115,7 @@
       <c r="K69">
         <v>304</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M69">
@@ -4119,7 +4124,7 @@
       <c r="N69">
         <v>405</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P69">
@@ -4151,7 +4156,7 @@
       <c r="H70">
         <v>703</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J70">
@@ -4160,7 +4165,7 @@
       <c r="K70">
         <v>608</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M70">
@@ -4169,7 +4174,7 @@
       <c r="N70">
         <v>506</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P70">
@@ -4201,7 +4206,7 @@
       <c r="H71">
         <v>502</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J71">
@@ -4210,7 +4215,7 @@
       <c r="K71">
         <v>408</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M71">
@@ -4219,7 +4224,7 @@
       <c r="N71">
         <v>413</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P71">
@@ -4251,7 +4256,7 @@
       <c r="H72">
         <v>607</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J72">
@@ -4260,7 +4265,7 @@
       <c r="K72">
         <v>405</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M72">
@@ -4269,7 +4274,7 @@
       <c r="N72">
         <v>702</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="2" t="s">
         <v>59</v>
       </c>
       <c r="P72">
@@ -4301,7 +4306,7 @@
       <c r="H73">
         <v>703</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J73">
@@ -4310,7 +4315,7 @@
       <c r="K73">
         <v>416</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M73">
@@ -4319,7 +4324,7 @@
       <c r="N73">
         <v>607</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P73">
@@ -4351,7 +4356,7 @@
       <c r="H74">
         <v>501</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J74">
@@ -4360,7 +4365,7 @@
       <c r="K74">
         <v>507</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M74">
@@ -4369,7 +4374,7 @@
       <c r="N74">
         <v>703</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P74">
@@ -4401,7 +4406,7 @@
       <c r="H75">
         <v>703</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J75">
@@ -4410,7 +4415,7 @@
       <c r="K75">
         <v>408</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M75">
@@ -4419,7 +4424,7 @@
       <c r="N75">
         <v>608</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P75">
@@ -4451,7 +4456,7 @@
       <c r="H76">
         <v>405</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J76">
@@ -4460,7 +4465,7 @@
       <c r="K76">
         <v>302</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M76">
@@ -4469,7 +4474,7 @@
       <c r="N76">
         <v>413</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P76">
@@ -4502,7 +4507,7 @@
       <c r="H77">
         <v>105</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J77">
@@ -4511,7 +4516,7 @@
       <c r="K77">
         <v>605</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M77">
@@ -4520,7 +4525,7 @@
       <c r="N77">
         <v>504</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P77">
@@ -4553,7 +4558,7 @@
       <c r="H78">
         <v>304</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J78">
@@ -4562,7 +4567,7 @@
       <c r="K78">
         <v>108</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="2" t="s">
         <v>47</v>
       </c>
       <c r="M78">
@@ -4571,7 +4576,7 @@
       <c r="N78">
         <v>703</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P78">
@@ -4604,7 +4609,7 @@
       <c r="H79">
         <v>409</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J79">
@@ -4613,7 +4618,7 @@
       <c r="K79">
         <v>403</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M79">
@@ -4622,7 +4627,7 @@
       <c r="N79">
         <v>402</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P79">
@@ -4655,7 +4660,7 @@
       <c r="H80">
         <v>405</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J80">
@@ -4664,7 +4669,7 @@
       <c r="K80">
         <v>407</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M80">
@@ -4673,7 +4678,7 @@
       <c r="N80">
         <v>105</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="2" t="s">
         <v>69</v>
       </c>
       <c r="P80">
@@ -4706,7 +4711,7 @@
       <c r="H81">
         <v>105</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J81">
@@ -4715,7 +4720,7 @@
       <c r="K81">
         <v>703</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M81">
@@ -4724,7 +4729,7 @@
       <c r="N81">
         <v>301</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P81">
@@ -4757,7 +4762,7 @@
       <c r="H82">
         <v>105</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J82">
@@ -4766,7 +4771,7 @@
       <c r="K82">
         <v>405</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M82">
@@ -4775,7 +4780,7 @@
       <c r="N82">
         <v>412</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P82">
@@ -4808,7 +4813,7 @@
       <c r="H83">
         <v>411</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J83">
@@ -4817,7 +4822,7 @@
       <c r="K83">
         <v>410</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M83">
@@ -4826,7 +4831,7 @@
       <c r="N83">
         <v>506</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P83">
@@ -4859,7 +4864,7 @@
       <c r="H84">
         <v>702</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J84">
@@ -4868,7 +4873,7 @@
       <c r="K84">
         <v>304</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M84">
@@ -4877,7 +4882,7 @@
       <c r="N84">
         <v>303</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P84">
@@ -4910,7 +4915,7 @@
       <c r="H85">
         <v>109</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J85">
@@ -4919,7 +4924,7 @@
       <c r="K85">
         <v>605</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M85">
@@ -4928,7 +4933,7 @@
       <c r="N85">
         <v>302</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P85">
@@ -4961,7 +4966,7 @@
       <c r="H86">
         <v>405</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J86">
@@ -4970,7 +4975,7 @@
       <c r="K86">
         <v>302</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M86">
@@ -4979,7 +4984,7 @@
       <c r="N86">
         <v>413</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P86">
@@ -5003,7 +5008,7 @@
       <c r="E87">
         <v>411</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G87">
@@ -5012,7 +5017,7 @@
       <c r="H87">
         <v>507</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J87">
@@ -5021,7 +5026,7 @@
       <c r="K87">
         <v>412</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M87">
@@ -5030,7 +5035,7 @@
       <c r="N87">
         <v>504</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P87">
@@ -5063,7 +5068,7 @@
       <c r="H88">
         <v>502</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J88">
@@ -5072,7 +5077,7 @@
       <c r="K88">
         <v>606</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M88">
@@ -5081,7 +5086,7 @@
       <c r="N88">
         <v>507</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P88">
@@ -5114,7 +5119,7 @@
       <c r="H89">
         <v>401</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J89">
@@ -5123,7 +5128,7 @@
       <c r="K89">
         <v>201</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M89">
@@ -5132,7 +5137,7 @@
       <c r="N89">
         <v>303</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P89">
@@ -5165,7 +5170,7 @@
       <c r="H90">
         <v>411</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J90">
@@ -5174,7 +5179,7 @@
       <c r="K90">
         <v>410</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M90">
@@ -5183,7 +5188,7 @@
       <c r="N90">
         <v>303</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O90" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P90">
@@ -5216,7 +5221,7 @@
       <c r="H91">
         <v>605</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J91">
@@ -5225,7 +5230,7 @@
       <c r="K91">
         <v>104</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="3" t="s">
         <v>68</v>
       </c>
       <c r="M91">
@@ -5234,7 +5239,7 @@
       <c r="N91">
         <v>703</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O91" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P91">
@@ -5267,7 +5272,7 @@
       <c r="H92">
         <v>606</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J92">
@@ -5276,7 +5281,7 @@
       <c r="K92">
         <v>502</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M92">
@@ -5285,7 +5290,7 @@
       <c r="N92">
         <v>504</v>
       </c>
-      <c r="O92" t="s">
+      <c r="O92" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P92">
@@ -5318,7 +5323,7 @@
       <c r="H93">
         <v>507</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J93">
@@ -5327,7 +5332,7 @@
       <c r="K93">
         <v>410</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M93">
@@ -5336,7 +5341,7 @@
       <c r="N93">
         <v>703</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P93">
@@ -5369,7 +5374,7 @@
       <c r="H94">
         <v>505</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J94">
@@ -5378,7 +5383,7 @@
       <c r="K94">
         <v>110</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M94">
@@ -5387,7 +5392,7 @@
       <c r="N94">
         <v>507</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O94" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P94">
@@ -5420,7 +5425,7 @@
       <c r="H95">
         <v>701</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J95">
@@ -5429,7 +5434,7 @@
       <c r="K95">
         <v>305</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M95">
@@ -5438,7 +5443,7 @@
       <c r="N95">
         <v>603</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="P95">
@@ -5470,7 +5475,7 @@
       <c r="H96">
         <v>301</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J96">
@@ -5479,7 +5484,7 @@
       <c r="K96">
         <v>303</v>
       </c>
-      <c r="L96" t="s">
+      <c r="L96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M96">
@@ -5488,7 +5493,7 @@
       <c r="N96">
         <v>204</v>
       </c>
-      <c r="O96" t="s">
+      <c r="O96" s="2" t="s">
         <v>46</v>
       </c>
       <c r="P96">
@@ -5520,7 +5525,7 @@
       <c r="H97">
         <v>304</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J97">
@@ -5529,7 +5534,7 @@
       <c r="K97">
         <v>503</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M97">
@@ -5538,7 +5543,7 @@
       <c r="N97">
         <v>505</v>
       </c>
-      <c r="O97" t="s">
+      <c r="O97" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P97">
@@ -5570,7 +5575,7 @@
       <c r="H98">
         <v>107</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J98">
@@ -5579,7 +5584,7 @@
       <c r="K98">
         <v>109</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M98">
@@ -5588,7 +5593,7 @@
       <c r="N98">
         <v>202</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O98" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P98">
@@ -5620,7 +5625,7 @@
       <c r="H99">
         <v>302</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J99">
@@ -5629,7 +5634,7 @@
       <c r="K99">
         <v>202</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M99">
@@ -5638,7 +5643,7 @@
       <c r="N99">
         <v>203</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P99">
@@ -5670,7 +5675,7 @@
       <c r="H100">
         <v>302</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J100">
@@ -5679,7 +5684,7 @@
       <c r="K100">
         <v>414</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M100">
@@ -5688,7 +5693,7 @@
       <c r="N100">
         <v>411</v>
       </c>
-      <c r="O100" t="s">
+      <c r="O100" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P100">
@@ -5720,7 +5725,7 @@
       <c r="H101">
         <v>304</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J101">
@@ -5729,7 +5734,7 @@
       <c r="K101">
         <v>105</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="2" t="s">
         <v>69</v>
       </c>
       <c r="M101">
@@ -5738,7 +5743,7 @@
       <c r="N101">
         <v>504</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P101">
@@ -5770,7 +5775,7 @@
       <c r="H102">
         <v>604</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J102">
@@ -5779,7 +5784,7 @@
       <c r="K102">
         <v>603</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M102">
@@ -5788,7 +5793,7 @@
       <c r="N102">
         <v>505</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O102" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P102">
@@ -5820,7 +5825,7 @@
       <c r="H103">
         <v>504</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J103">
@@ -5829,7 +5834,7 @@
       <c r="K103">
         <v>603</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M103">
@@ -5838,7 +5843,7 @@
       <c r="N103">
         <v>202</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O103" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P103">
@@ -5870,7 +5875,7 @@
       <c r="H104">
         <v>607</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J104">
@@ -5879,7 +5884,7 @@
       <c r="K104">
         <v>606</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M104">
@@ -5888,7 +5893,7 @@
       <c r="N104">
         <v>201</v>
       </c>
-      <c r="O104" t="s">
+      <c r="O104" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P104">
@@ -5920,7 +5925,7 @@
       <c r="H105">
         <v>201</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J105">
@@ -5929,7 +5934,7 @@
       <c r="K105">
         <v>304</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M105">
@@ -5938,7 +5943,7 @@
       <c r="N105">
         <v>401</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O105" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P105">
@@ -5970,7 +5975,7 @@
       <c r="H106">
         <v>607</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J106">
@@ -5979,7 +5984,7 @@
       <c r="K106">
         <v>102</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M106">
@@ -5988,7 +5993,7 @@
       <c r="N106">
         <v>701</v>
       </c>
-      <c r="O106" t="s">
+      <c r="O106" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P106">
@@ -6020,7 +6025,7 @@
       <c r="H107">
         <v>603</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J107">
@@ -6029,7 +6034,7 @@
       <c r="K107">
         <v>202</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M107">
@@ -6038,7 +6043,7 @@
       <c r="N107">
         <v>204</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P107">
@@ -6070,7 +6075,7 @@
       <c r="H108">
         <v>504</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J108">
@@ -6079,7 +6084,7 @@
       <c r="K108">
         <v>109</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M108">
@@ -6088,7 +6093,7 @@
       <c r="N108">
         <v>203</v>
       </c>
-      <c r="O108" t="s">
+      <c r="O108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P108">
@@ -6120,7 +6125,7 @@
       <c r="H109">
         <v>504</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J109">
@@ -6129,7 +6134,7 @@
       <c r="K109">
         <v>409</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M109">
@@ -6138,7 +6143,7 @@
       <c r="N109">
         <v>410</v>
       </c>
-      <c r="O109" t="s">
+      <c r="O109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P109">
@@ -6170,7 +6175,7 @@
       <c r="H110">
         <v>404</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J110">
@@ -6179,7 +6184,7 @@
       <c r="K110">
         <v>302</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M110">
@@ -6188,7 +6193,7 @@
       <c r="N110">
         <v>303</v>
       </c>
-      <c r="O110" t="s">
+      <c r="O110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P110">
@@ -6220,7 +6225,7 @@
       <c r="H111">
         <v>503</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J111">
@@ -6229,7 +6234,7 @@
       <c r="K111">
         <v>107</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M111">
@@ -6238,7 +6243,7 @@
       <c r="N111">
         <v>410</v>
       </c>
-      <c r="O111" t="s">
+      <c r="O111" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P111">
@@ -6270,7 +6275,7 @@
       <c r="H112">
         <v>107</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J112">
@@ -6279,7 +6284,7 @@
       <c r="K112">
         <v>505</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M112">
@@ -6288,7 +6293,7 @@
       <c r="N112">
         <v>504</v>
       </c>
-      <c r="O112" t="s">
+      <c r="O112" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P112">
@@ -6320,7 +6325,7 @@
       <c r="H113">
         <v>503</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J113">
@@ -6329,7 +6334,7 @@
       <c r="K113">
         <v>604</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M113">
@@ -6338,7 +6343,7 @@
       <c r="N113">
         <v>506</v>
       </c>
-      <c r="O113" t="s">
+      <c r="O113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P113">
@@ -6370,7 +6375,7 @@
       <c r="H114">
         <v>504</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J114">
@@ -6379,7 +6384,7 @@
       <c r="K114">
         <v>203</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M114">
@@ -6388,7 +6393,7 @@
       <c r="N114">
         <v>109</v>
       </c>
-      <c r="O114" t="s">
+      <c r="O114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P114">
@@ -6420,7 +6425,7 @@
       <c r="H115">
         <v>416</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J115">
@@ -6429,7 +6434,7 @@
       <c r="K115">
         <v>608</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M115">
@@ -6438,7 +6443,7 @@
       <c r="N115">
         <v>302</v>
       </c>
-      <c r="O115" t="s">
+      <c r="O115" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P115">
@@ -6453,7 +6458,7 @@
       <c r="B116">
         <v>109</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D116">
@@ -6471,7 +6476,7 @@
       <c r="H116">
         <v>416</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J116">
@@ -6480,7 +6485,7 @@
       <c r="K116">
         <v>602</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M116">
@@ -6489,7 +6494,7 @@
       <c r="N116">
         <v>504</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O116" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P116">
@@ -6522,7 +6527,7 @@
       <c r="H117">
         <v>305</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J117">
@@ -6531,7 +6536,7 @@
       <c r="K117">
         <v>108</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="2" t="s">
         <v>47</v>
       </c>
       <c r="M117">
@@ -6540,7 +6545,7 @@
       <c r="N117">
         <v>608</v>
       </c>
-      <c r="O117" t="s">
+      <c r="O117" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P117">
@@ -6573,7 +6578,7 @@
       <c r="H118">
         <v>403</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J118">
@@ -6582,7 +6587,7 @@
       <c r="K118">
         <v>409</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M118">
@@ -6591,7 +6596,7 @@
       <c r="N118">
         <v>414</v>
       </c>
-      <c r="O118" t="s">
+      <c r="O118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P118">
@@ -6624,7 +6629,7 @@
       <c r="H119">
         <v>410</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J119">
@@ -6633,7 +6638,7 @@
       <c r="K119">
         <v>404</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M119">
@@ -6642,7 +6647,7 @@
       <c r="N119">
         <v>403</v>
       </c>
-      <c r="O119" t="s">
+      <c r="O119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P119">
@@ -6675,7 +6680,7 @@
       <c r="H120">
         <v>606</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J120">
@@ -6684,7 +6689,7 @@
       <c r="K120">
         <v>409</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L120" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M120">
@@ -6693,7 +6698,7 @@
       <c r="N120">
         <v>502</v>
       </c>
-      <c r="O120" t="s">
+      <c r="O120" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P120">
@@ -6726,7 +6731,7 @@
       <c r="H121">
         <v>504</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J121">
@@ -6735,7 +6740,7 @@
       <c r="K121">
         <v>103</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M121">
@@ -6744,7 +6749,7 @@
       <c r="N121">
         <v>706</v>
       </c>
-      <c r="O121" t="s">
+      <c r="O121" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P121">
@@ -6777,7 +6782,7 @@
       <c r="H122">
         <v>706</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J122">
@@ -6786,7 +6791,7 @@
       <c r="K122">
         <v>408</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M122">
@@ -6795,7 +6800,7 @@
       <c r="N122">
         <v>505</v>
       </c>
-      <c r="O122" t="s">
+      <c r="O122" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P122">
@@ -6828,7 +6833,7 @@
       <c r="H123">
         <v>105</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J123">
@@ -6837,7 +6842,7 @@
       <c r="K123">
         <v>410</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M123">
@@ -6846,7 +6851,7 @@
       <c r="N123">
         <v>304</v>
       </c>
-      <c r="O123" t="s">
+      <c r="O123" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P123">
@@ -6879,7 +6884,7 @@
       <c r="H124">
         <v>507</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J124">
@@ -6888,7 +6893,7 @@
       <c r="K124">
         <v>504</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M124">
@@ -6897,7 +6902,7 @@
       <c r="N124">
         <v>410</v>
       </c>
-      <c r="O124" t="s">
+      <c r="O124" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P124">
@@ -6930,7 +6935,7 @@
       <c r="H125">
         <v>608</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J125">
@@ -6939,7 +6944,7 @@
       <c r="K125">
         <v>410</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M125">
@@ -6948,7 +6953,7 @@
       <c r="N125">
         <v>507</v>
       </c>
-      <c r="O125" t="s">
+      <c r="O125" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P125">
@@ -6981,7 +6986,7 @@
       <c r="H126">
         <v>413</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J126">
@@ -6990,7 +6995,7 @@
       <c r="K126">
         <v>412</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M126">
@@ -6999,7 +7004,7 @@
       <c r="N126">
         <v>302</v>
       </c>
-      <c r="O126" t="s">
+      <c r="O126" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P126">
@@ -7032,7 +7037,7 @@
       <c r="H127">
         <v>402</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J127">
@@ -7041,7 +7046,7 @@
       <c r="K127">
         <v>109</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M127">
@@ -7050,7 +7055,7 @@
       <c r="N127">
         <v>202</v>
       </c>
-      <c r="O127" t="s">
+      <c r="O127" s="2" t="s">
         <v>52</v>
       </c>
       <c r="P127">
@@ -7083,7 +7088,7 @@
       <c r="H128">
         <v>411</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J128">
@@ -7092,7 +7097,7 @@
       <c r="K128">
         <v>414</v>
       </c>
-      <c r="L128" t="s">
+      <c r="L128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M128">
@@ -7101,7 +7106,7 @@
       <c r="N128">
         <v>403</v>
       </c>
-      <c r="O128" t="s">
+      <c r="O128" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P128">
@@ -7116,7 +7121,7 @@
       <c r="B129">
         <v>403</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D129">
@@ -7134,7 +7139,7 @@
       <c r="H129">
         <v>414</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J129">
@@ -7143,7 +7148,7 @@
       <c r="K129">
         <v>401</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M129">
@@ -7152,7 +7157,7 @@
       <c r="N129">
         <v>504</v>
       </c>
-      <c r="O129" t="s">
+      <c r="O129" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P129">
@@ -7185,7 +7190,7 @@
       <c r="H130">
         <v>504</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J130">
@@ -7194,7 +7199,7 @@
       <c r="K130">
         <v>704</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M130">
@@ -7203,7 +7208,7 @@
       <c r="N130">
         <v>403</v>
       </c>
-      <c r="O130" t="s">
+      <c r="O130" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P130">
@@ -7236,7 +7241,7 @@
       <c r="H131">
         <v>201</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J131">
@@ -7245,7 +7250,7 @@
       <c r="K131">
         <v>505</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M131">
@@ -7254,7 +7259,7 @@
       <c r="N131">
         <v>604</v>
       </c>
-      <c r="O131" t="s">
+      <c r="O131" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P131">
@@ -7287,7 +7292,7 @@
       <c r="H132">
         <v>304</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J132">
@@ -7296,7 +7301,7 @@
       <c r="K132">
         <v>403</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M132">
@@ -7305,7 +7310,7 @@
       <c r="N132">
         <v>401</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O132" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P132">
@@ -7338,7 +7343,7 @@
       <c r="H133">
         <v>408</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J133">
@@ -7347,7 +7352,7 @@
       <c r="K133">
         <v>506</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M133">
@@ -7356,7 +7361,7 @@
       <c r="N133">
         <v>401</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O133" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P133">
@@ -7389,7 +7394,7 @@
       <c r="H134">
         <v>603</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J134">
@@ -7398,7 +7403,7 @@
       <c r="K134">
         <v>505</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M134">
@@ -7407,7 +7412,7 @@
       <c r="N134">
         <v>201</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O134" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P134">
@@ -7440,7 +7445,7 @@
       <c r="H135">
         <v>605</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J135">
@@ -7449,7 +7454,7 @@
       <c r="K135">
         <v>107</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M135">
@@ -7458,7 +7463,7 @@
       <c r="N135">
         <v>414</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P135">
@@ -7491,7 +7496,7 @@
       <c r="H136">
         <v>412</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J136">
@@ -7500,7 +7505,7 @@
       <c r="K136">
         <v>408</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M136">
@@ -7509,7 +7514,7 @@
       <c r="N136">
         <v>411</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O136" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P136">
@@ -7542,7 +7547,7 @@
       <c r="H137">
         <v>607</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J137">
@@ -7551,7 +7556,7 @@
       <c r="K137">
         <v>407</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L137" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M137">
@@ -7560,7 +7565,7 @@
       <c r="N137">
         <v>401</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O137" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P137">
@@ -7575,7 +7580,7 @@
       <c r="B138">
         <v>502</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D138">
@@ -7593,7 +7598,7 @@
       <c r="H138">
         <v>201</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J138">
@@ -7602,7 +7607,7 @@
       <c r="K138">
         <v>603</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M138">
@@ -7611,7 +7616,7 @@
       <c r="N138">
         <v>505</v>
       </c>
-      <c r="O138" t="s">
+      <c r="O138" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P138">
@@ -7644,7 +7649,7 @@
       <c r="H139">
         <v>411</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J139">
@@ -7653,7 +7658,7 @@
       <c r="K139">
         <v>607</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M139">
@@ -7662,7 +7667,7 @@
       <c r="N139">
         <v>605</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O139" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P139">
@@ -7695,7 +7700,7 @@
       <c r="H140">
         <v>203</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J140">
@@ -7704,7 +7709,7 @@
       <c r="K140">
         <v>605</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M140">
@@ -7713,7 +7718,7 @@
       <c r="N140">
         <v>607</v>
       </c>
-      <c r="O140" t="s">
+      <c r="O140" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P140">
@@ -7746,7 +7751,7 @@
       <c r="H141">
         <v>203</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J141">
@@ -7755,7 +7760,7 @@
       <c r="K141">
         <v>701</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M141">
@@ -7764,7 +7769,7 @@
       <c r="N141">
         <v>109</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P141">
@@ -7796,7 +7801,7 @@
       <c r="H142">
         <v>402</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J142">
@@ -7805,7 +7810,7 @@
       <c r="K142">
         <v>104</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="1" t="s">
         <v>68</v>
       </c>
       <c r="M142">
@@ -7814,7 +7819,7 @@
       <c r="N142">
         <v>605</v>
       </c>
-      <c r="O142" t="s">
+      <c r="O142" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P142">
@@ -7846,7 +7851,7 @@
       <c r="H143">
         <v>103</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J143">
@@ -7855,7 +7860,7 @@
       <c r="K143">
         <v>302</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M143">
@@ -7864,7 +7869,7 @@
       <c r="N143">
         <v>106</v>
       </c>
-      <c r="O143" t="s">
+      <c r="O143" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P143">
@@ -7896,7 +7901,7 @@
       <c r="H144">
         <v>105</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J144">
@@ -7905,7 +7910,7 @@
       <c r="K144">
         <v>103</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M144">
@@ -7914,7 +7919,7 @@
       <c r="N144">
         <v>303</v>
       </c>
-      <c r="O144" t="s">
+      <c r="O144" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P144">
@@ -7946,7 +7951,7 @@
       <c r="H145">
         <v>304</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J145">
@@ -7955,7 +7960,7 @@
       <c r="K145">
         <v>106</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L145" s="3" t="s">
         <v>71</v>
       </c>
       <c r="M145">
@@ -7964,8 +7969,8 @@
       <c r="N145">
         <v>410</v>
       </c>
-      <c r="O145" t="s">
-        <v>24</v>
+      <c r="O145" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="P145">
         <v>1.2759687461737499</v>
@@ -7996,7 +8001,7 @@
       <c r="H146">
         <v>104</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J146">
@@ -8005,7 +8010,7 @@
       <c r="K146">
         <v>101</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M146">
@@ -8014,7 +8019,7 @@
       <c r="N146">
         <v>107</v>
       </c>
-      <c r="O146" t="s">
+      <c r="O146" s="1" t="s">
         <v>67</v>
       </c>
       <c r="P146">
@@ -8046,7 +8051,7 @@
       <c r="H147">
         <v>305</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J147">
@@ -8055,7 +8060,7 @@
       <c r="K147">
         <v>701</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M147">
@@ -8064,7 +8069,7 @@
       <c r="N147">
         <v>103</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O147" s="2" t="s">
         <v>62</v>
       </c>
       <c r="P147">
@@ -8096,7 +8101,7 @@
       <c r="H148">
         <v>103</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J148">
@@ -8105,7 +8110,7 @@
       <c r="K148">
         <v>704</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="2" t="s">
         <v>57</v>
       </c>
       <c r="M148">
@@ -8114,7 +8119,7 @@
       <c r="N148">
         <v>706</v>
       </c>
-      <c r="O148" t="s">
+      <c r="O148" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P148">
@@ -8146,7 +8151,7 @@
       <c r="H149">
         <v>413</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J149">
@@ -8155,7 +8160,7 @@
       <c r="K149">
         <v>103</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M149">
@@ -8164,7 +8169,7 @@
       <c r="N149">
         <v>106</v>
       </c>
-      <c r="O149" t="s">
+      <c r="O149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P149">
@@ -8196,7 +8201,7 @@
       <c r="H150">
         <v>103</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J150">
@@ -8205,7 +8210,7 @@
       <c r="K150">
         <v>106</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M150">
@@ -8214,7 +8219,7 @@
       <c r="N150">
         <v>404</v>
       </c>
-      <c r="O150" t="s">
+      <c r="O150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P150">
@@ -8246,7 +8251,7 @@
       <c r="H151">
         <v>103</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J151">
@@ -8255,7 +8260,7 @@
       <c r="K151">
         <v>416</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M151">
@@ -8264,7 +8269,7 @@
       <c r="N151">
         <v>501</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O151" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P151">
@@ -8296,7 +8301,7 @@
       <c r="H152">
         <v>109</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J152">
@@ -8305,7 +8310,7 @@
       <c r="K152">
         <v>303</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M152">
@@ -8314,7 +8319,7 @@
       <c r="N152">
         <v>505</v>
       </c>
-      <c r="O152" t="s">
+      <c r="O152" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P152">
@@ -8346,7 +8351,7 @@
       <c r="H153">
         <v>411</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J153">
@@ -8355,7 +8360,7 @@
       <c r="K153">
         <v>103</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M153">
@@ -8364,7 +8369,7 @@
       <c r="N153">
         <v>704</v>
       </c>
-      <c r="O153" t="s">
+      <c r="O153" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P153">
@@ -8396,7 +8401,7 @@
       <c r="H154">
         <v>103</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J154">
@@ -8405,7 +8410,7 @@
       <c r="K154">
         <v>302</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M154">
@@ -8414,7 +8419,7 @@
       <c r="N154">
         <v>304</v>
       </c>
-      <c r="O154" t="s">
+      <c r="O154" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P154">
@@ -8446,7 +8451,7 @@
       <c r="H155">
         <v>103</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J155">
@@ -8455,7 +8460,7 @@
       <c r="K155">
         <v>412</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M155">
@@ -8464,7 +8469,7 @@
       <c r="N155">
         <v>109</v>
       </c>
-      <c r="O155" t="s">
+      <c r="O155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P155">
@@ -8496,7 +8501,7 @@
       <c r="H156">
         <v>103</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J156">
@@ -8505,7 +8510,7 @@
       <c r="K156">
         <v>106</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M156">
@@ -8514,7 +8519,7 @@
       <c r="N156">
         <v>302</v>
       </c>
-      <c r="O156" t="s">
+      <c r="O156" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P156">
@@ -8546,7 +8551,7 @@
       <c r="H157">
         <v>411</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J157">
@@ -8555,7 +8560,7 @@
       <c r="K157">
         <v>410</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M157">
@@ -8564,7 +8569,7 @@
       <c r="N157">
         <v>506</v>
       </c>
-      <c r="O157" t="s">
+      <c r="O157" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P157">
@@ -8596,7 +8601,7 @@
       <c r="H158">
         <v>109</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J158">
@@ -8605,7 +8610,7 @@
       <c r="K158">
         <v>301</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M158">
@@ -8614,7 +8619,7 @@
       <c r="N158">
         <v>414</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P158">
@@ -8646,7 +8651,7 @@
       <c r="H159">
         <v>305</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J159">
@@ -8655,7 +8660,7 @@
       <c r="K159">
         <v>108</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="2" t="s">
         <v>47</v>
       </c>
       <c r="M159">
@@ -8664,7 +8669,7 @@
       <c r="N159">
         <v>507</v>
       </c>
-      <c r="O159" t="s">
+      <c r="O159" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P159">
@@ -8696,7 +8701,7 @@
       <c r="H160">
         <v>303</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J160">
@@ -8705,7 +8710,7 @@
       <c r="K160">
         <v>404</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M160">
@@ -8714,7 +8719,7 @@
       <c r="N160">
         <v>415</v>
       </c>
-      <c r="O160" t="s">
+      <c r="O160" s="2" t="s">
         <v>54</v>
       </c>
       <c r="P160">
@@ -8746,7 +8751,7 @@
       <c r="H161">
         <v>303</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J161">
@@ -8755,7 +8760,7 @@
       <c r="K161">
         <v>103</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M161">
@@ -8764,7 +8769,7 @@
       <c r="N161">
         <v>416</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O161" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P161">
@@ -8778,7 +8783,7 @@
       <c r="B162">
         <v>107</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D162">
@@ -8796,7 +8801,7 @@
       <c r="H162">
         <v>109</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J162">
@@ -8805,7 +8810,7 @@
       <c r="K162">
         <v>202</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M162">
@@ -8814,7 +8819,7 @@
       <c r="N162">
         <v>507</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P162">
@@ -8846,7 +8851,7 @@
       <c r="H163">
         <v>412</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J163">
@@ -8855,7 +8860,7 @@
       <c r="K163">
         <v>403</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M163">
@@ -8864,7 +8869,7 @@
       <c r="N163">
         <v>107</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O163" s="2" t="s">
         <v>67</v>
       </c>
       <c r="P163">
@@ -8896,7 +8901,7 @@
       <c r="H164">
         <v>405</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J164">
@@ -8905,7 +8910,7 @@
       <c r="K164">
         <v>412</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M164">
@@ -8914,7 +8919,7 @@
       <c r="N164">
         <v>403</v>
       </c>
-      <c r="O164" t="s">
+      <c r="O164" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P164">
@@ -8946,7 +8951,7 @@
       <c r="H165">
         <v>507</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J165">
@@ -8955,7 +8960,7 @@
       <c r="K165">
         <v>404</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M165">
@@ -8964,7 +8969,7 @@
       <c r="N165">
         <v>403</v>
       </c>
-      <c r="O165" t="s">
+      <c r="O165" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P165">
@@ -8996,7 +9001,7 @@
       <c r="H166">
         <v>704</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J166">
@@ -9005,7 +9010,7 @@
       <c r="K166">
         <v>605</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M166">
@@ -9014,7 +9019,7 @@
       <c r="N166">
         <v>403</v>
       </c>
-      <c r="O166" t="s">
+      <c r="O166" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P166">
@@ -9046,7 +9051,7 @@
       <c r="H167">
         <v>507</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J167">
@@ -9055,7 +9060,7 @@
       <c r="K167">
         <v>703</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M167">
@@ -9064,7 +9069,7 @@
       <c r="N167">
         <v>408</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167" s="2" t="s">
         <v>38</v>
       </c>
       <c r="P167">
@@ -9096,7 +9101,7 @@
       <c r="H168">
         <v>507</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J168">
@@ -9105,7 +9110,7 @@
       <c r="K168">
         <v>410</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L168" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M168">
@@ -9114,7 +9119,7 @@
       <c r="N168">
         <v>506</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O168" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P168">
@@ -9146,7 +9151,7 @@
       <c r="H169">
         <v>702</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J169">
@@ -9155,7 +9160,7 @@
       <c r="K169">
         <v>302</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M169">
@@ -9164,7 +9169,7 @@
       <c r="N169">
         <v>303</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P169">
@@ -9196,7 +9201,7 @@
       <c r="H170">
         <v>702</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J170">
@@ -9205,7 +9210,7 @@
       <c r="K170">
         <v>407</v>
       </c>
-      <c r="L170" t="s">
+      <c r="L170" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M170">
@@ -9214,7 +9219,7 @@
       <c r="N170">
         <v>204</v>
       </c>
-      <c r="O170" t="s">
+      <c r="O170" s="2" t="s">
         <v>46</v>
       </c>
       <c r="P170">
@@ -9237,7 +9242,7 @@
       <c r="E171">
         <v>406</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G171">
@@ -9246,7 +9251,7 @@
       <c r="H171">
         <v>401</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J171">
@@ -9255,7 +9260,7 @@
       <c r="K171">
         <v>410</v>
       </c>
-      <c r="L171" t="s">
+      <c r="L171" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M171">
@@ -9264,7 +9269,7 @@
       <c r="N171">
         <v>201</v>
       </c>
-      <c r="O171" t="s">
+      <c r="O171" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P171">
@@ -9296,7 +9301,7 @@
       <c r="H172">
         <v>416</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J172">
@@ -9305,7 +9310,7 @@
       <c r="K172">
         <v>401</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M172">
@@ -9314,7 +9319,7 @@
       <c r="N172">
         <v>505</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O172" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P172">
@@ -9346,7 +9351,7 @@
       <c r="H173">
         <v>412</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J173">
@@ -9355,7 +9360,7 @@
       <c r="K173">
         <v>303</v>
       </c>
-      <c r="L173" t="s">
+      <c r="L173" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M173">
@@ -9364,7 +9369,7 @@
       <c r="N173">
         <v>402</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O173" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P173">
@@ -9396,7 +9401,7 @@
       <c r="H174">
         <v>411</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J174">
@@ -9405,7 +9410,7 @@
       <c r="K174">
         <v>607</v>
       </c>
-      <c r="L174" t="s">
+      <c r="L174" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M174">
@@ -9414,7 +9419,7 @@
       <c r="N174">
         <v>410</v>
       </c>
-      <c r="O174" t="s">
+      <c r="O174" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P174">
@@ -9446,7 +9451,7 @@
       <c r="H175">
         <v>410</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J175">
@@ -9455,7 +9460,7 @@
       <c r="K175">
         <v>408</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M175">
@@ -9464,7 +9469,7 @@
       <c r="N175">
         <v>404</v>
       </c>
-      <c r="O175" t="s">
+      <c r="O175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P175">
@@ -9496,7 +9501,7 @@
       <c r="H176">
         <v>405</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J176">
@@ -9505,7 +9510,7 @@
       <c r="K176">
         <v>702</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="2" t="s">
         <v>59</v>
       </c>
       <c r="M176">
@@ -9514,7 +9519,7 @@
       <c r="N176">
         <v>407</v>
       </c>
-      <c r="O176" t="s">
+      <c r="O176" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P176">
@@ -9546,7 +9551,7 @@
       <c r="H177">
         <v>305</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J177">
@@ -9555,7 +9560,7 @@
       <c r="K177">
         <v>410</v>
       </c>
-      <c r="L177" t="s">
+      <c r="L177" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M177">
@@ -9564,7 +9569,7 @@
       <c r="N177">
         <v>101</v>
       </c>
-      <c r="O177" t="s">
+      <c r="O177" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P177">
@@ -9596,7 +9601,7 @@
       <c r="H178">
         <v>109</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J178">
@@ -9605,7 +9610,7 @@
       <c r="K178">
         <v>409</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M178">
@@ -9614,7 +9619,7 @@
       <c r="N178">
         <v>507</v>
       </c>
-      <c r="O178" t="s">
+      <c r="O178" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P178">
@@ -9646,7 +9651,7 @@
       <c r="H179">
         <v>605</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J179">
@@ -9655,7 +9660,7 @@
       <c r="K179">
         <v>202</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M179">
@@ -9664,7 +9669,7 @@
       <c r="N179">
         <v>501</v>
       </c>
-      <c r="O179" t="s">
+      <c r="O179" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P179">
@@ -9696,7 +9701,7 @@
       <c r="H180">
         <v>703</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J180">
@@ -9705,7 +9710,7 @@
       <c r="K180">
         <v>107</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="1" t="s">
         <v>67</v>
       </c>
       <c r="M180">
@@ -9714,7 +9719,7 @@
       <c r="N180">
         <v>411</v>
       </c>
-      <c r="O180" t="s">
+      <c r="O180" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P180">
@@ -9746,7 +9751,7 @@
       <c r="H181">
         <v>109</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J181">
@@ -9755,7 +9760,7 @@
       <c r="K181">
         <v>301</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L181" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M181">
@@ -9764,7 +9769,7 @@
       <c r="N181">
         <v>414</v>
       </c>
-      <c r="O181" t="s">
+      <c r="O181" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P181">
@@ -9796,7 +9801,7 @@
       <c r="H182">
         <v>701</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J182">
@@ -9805,7 +9810,7 @@
       <c r="K182">
         <v>608</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L182" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M182">
@@ -9814,7 +9819,7 @@
       <c r="N182">
         <v>505</v>
       </c>
-      <c r="O182" t="s">
+      <c r="O182" s="2" t="s">
         <v>56</v>
       </c>
       <c r="P182">
@@ -9846,7 +9851,7 @@
       <c r="H183">
         <v>110</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J183">
@@ -9855,7 +9860,7 @@
       <c r="K183">
         <v>607</v>
       </c>
-      <c r="L183" t="s">
+      <c r="L183" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M183">
@@ -9864,7 +9869,7 @@
       <c r="N183">
         <v>202</v>
       </c>
-      <c r="O183" t="s">
+      <c r="O183" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P183">
@@ -9896,7 +9901,7 @@
       <c r="H184">
         <v>107</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J184">
@@ -9905,7 +9910,7 @@
       <c r="K184">
         <v>201</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M184">
@@ -9914,7 +9919,7 @@
       <c r="N184">
         <v>501</v>
       </c>
-      <c r="O184" t="s">
+      <c r="O184" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P184">
@@ -9946,7 +9951,7 @@
       <c r="H185">
         <v>602</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J185">
@@ -9955,7 +9960,7 @@
       <c r="K185">
         <v>202</v>
       </c>
-      <c r="L185" t="s">
+      <c r="L185" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M185">
@@ -9964,7 +9969,7 @@
       <c r="N185">
         <v>606</v>
       </c>
-      <c r="O185" t="s">
+      <c r="O185" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P185">
@@ -9996,7 +10001,7 @@
       <c r="H186">
         <v>202</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="3" t="s">
         <v>52</v>
       </c>
       <c r="J186">
@@ -10005,7 +10010,7 @@
       <c r="K186">
         <v>602</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M186">
@@ -10014,7 +10019,7 @@
       <c r="N186">
         <v>601</v>
       </c>
-      <c r="O186" t="s">
+      <c r="O186" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P186">
@@ -10046,7 +10051,7 @@
       <c r="H187">
         <v>102</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J187">
@@ -10055,7 +10060,7 @@
       <c r="K187">
         <v>110</v>
       </c>
-      <c r="L187" t="s">
+      <c r="L187" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M187">
@@ -10064,7 +10069,7 @@
       <c r="N187">
         <v>407</v>
       </c>
-      <c r="O187" t="s">
+      <c r="O187" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P187">
@@ -10096,7 +10101,7 @@
       <c r="H188">
         <v>109</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J188">
@@ -10105,7 +10110,7 @@
       <c r="K188">
         <v>203</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M188">
@@ -10114,7 +10119,7 @@
       <c r="N188">
         <v>202</v>
       </c>
-      <c r="O188" t="s">
+      <c r="O188" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P188">
@@ -10146,7 +10151,7 @@
       <c r="H189">
         <v>405</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J189">
@@ -10155,7 +10160,7 @@
       <c r="K189">
         <v>302</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M189">
@@ -10164,7 +10169,7 @@
       <c r="N189">
         <v>303</v>
       </c>
-      <c r="O189" t="s">
+      <c r="O189" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P189">
@@ -10196,7 +10201,7 @@
       <c r="H190">
         <v>405</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J190">
@@ -10205,7 +10210,7 @@
       <c r="K190">
         <v>303</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M190">
@@ -10214,7 +10219,7 @@
       <c r="N190">
         <v>413</v>
       </c>
-      <c r="O190" t="s">
+      <c r="O190" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P190">
@@ -10246,7 +10251,7 @@
       <c r="H191">
         <v>305</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J191">
@@ -10255,7 +10260,7 @@
       <c r="K191">
         <v>413</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M191">
@@ -10264,7 +10269,7 @@
       <c r="N191">
         <v>304</v>
       </c>
-      <c r="O191" t="s">
+      <c r="O191" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P191">
@@ -10296,7 +10301,7 @@
       <c r="H192">
         <v>504</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J192">
@@ -10305,7 +10310,7 @@
       <c r="K192">
         <v>201</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M192">
@@ -10314,7 +10319,7 @@
       <c r="N192">
         <v>606</v>
       </c>
-      <c r="O192" t="s">
+      <c r="O192" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P192">
@@ -10346,7 +10351,7 @@
       <c r="H193">
         <v>701</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J193">
@@ -10355,7 +10360,7 @@
       <c r="K193">
         <v>405</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L193" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M193">
@@ -10364,7 +10369,7 @@
       <c r="N193">
         <v>302</v>
       </c>
-      <c r="O193" t="s">
+      <c r="O193" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P193">
@@ -10396,7 +10401,7 @@
       <c r="H194">
         <v>101</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J194">
@@ -10405,7 +10410,7 @@
       <c r="K194">
         <v>702</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="2" t="s">
         <v>59</v>
       </c>
       <c r="M194">
@@ -10414,7 +10419,7 @@
       <c r="N194">
         <v>413</v>
       </c>
-      <c r="O194" t="s">
+      <c r="O194" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P194">
@@ -10446,7 +10451,7 @@
       <c r="H195">
         <v>703</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J195">
@@ -10455,7 +10460,7 @@
       <c r="K195">
         <v>304</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M195">
@@ -10464,7 +10469,7 @@
       <c r="N195">
         <v>413</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O195" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P195">
@@ -10496,7 +10501,7 @@
       <c r="H196">
         <v>405</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J196">
@@ -10505,7 +10510,7 @@
       <c r="K196">
         <v>404</v>
       </c>
-      <c r="L196" t="s">
+      <c r="L196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M196">
@@ -10514,7 +10519,7 @@
       <c r="N196">
         <v>302</v>
       </c>
-      <c r="O196" t="s">
+      <c r="O196" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P196">
@@ -10546,7 +10551,7 @@
       <c r="H197">
         <v>412</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J197">
@@ -10555,7 +10560,7 @@
       <c r="K197">
         <v>302</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L197" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M197">
@@ -10564,7 +10569,7 @@
       <c r="N197">
         <v>405</v>
       </c>
-      <c r="O197" t="s">
+      <c r="O197" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P197">
@@ -10596,7 +10601,7 @@
       <c r="H198">
         <v>605</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J198">
@@ -10605,7 +10610,7 @@
       <c r="K198">
         <v>608</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M198">
@@ -10614,7 +10619,7 @@
       <c r="N198">
         <v>404</v>
       </c>
-      <c r="O198" t="s">
+      <c r="O198" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P198">
@@ -10646,7 +10651,7 @@
       <c r="H199">
         <v>411</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J199">
@@ -10655,7 +10660,7 @@
       <c r="K199">
         <v>409</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L199" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M199">
@@ -10664,7 +10669,7 @@
       <c r="N199">
         <v>502</v>
       </c>
-      <c r="O199" t="s">
+      <c r="O199" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P199">
@@ -10696,7 +10701,7 @@
       <c r="H200">
         <v>303</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J200">
@@ -10705,7 +10710,7 @@
       <c r="K200">
         <v>405</v>
       </c>
-      <c r="L200" t="s">
+      <c r="L200" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M200">
@@ -10714,7 +10719,7 @@
       <c r="N200">
         <v>204</v>
       </c>
-      <c r="O200" t="s">
+      <c r="O200" s="2" t="s">
         <v>46</v>
       </c>
       <c r="P200">
@@ -10746,7 +10751,7 @@
       <c r="H201">
         <v>202</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J201">
@@ -10755,7 +10760,7 @@
       <c r="K201">
         <v>103</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M201">
@@ -10764,7 +10769,7 @@
       <c r="N201">
         <v>201</v>
       </c>
-      <c r="O201" t="s">
+      <c r="O201" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P201">
@@ -10796,7 +10801,7 @@
       <c r="H202">
         <v>405</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J202">
@@ -10805,7 +10810,7 @@
       <c r="K202">
         <v>303</v>
       </c>
-      <c r="L202" t="s">
+      <c r="L202" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M202">
@@ -10814,7 +10819,7 @@
       <c r="N202">
         <v>302</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O202" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P202">
@@ -10846,7 +10851,7 @@
       <c r="H203">
         <v>302</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J203">
@@ -10855,7 +10860,7 @@
       <c r="K203">
         <v>608</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L203" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M203">
@@ -10864,7 +10869,7 @@
       <c r="N203">
         <v>602</v>
       </c>
-      <c r="O203" t="s">
+      <c r="O203" s="2" t="s">
         <v>55</v>
       </c>
       <c r="P203">
@@ -10896,7 +10901,7 @@
       <c r="H204">
         <v>303</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J204">
@@ -10905,7 +10910,7 @@
       <c r="K204">
         <v>413</v>
       </c>
-      <c r="L204" t="s">
+      <c r="L204" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M204">
@@ -10914,7 +10919,7 @@
       <c r="N204">
         <v>302</v>
       </c>
-      <c r="O204" t="s">
+      <c r="O204" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P204">
@@ -10946,7 +10951,7 @@
       <c r="H205">
         <v>601</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J205">
@@ -10955,7 +10960,7 @@
       <c r="K205">
         <v>301</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M205">
@@ -10964,7 +10969,7 @@
       <c r="N205">
         <v>102</v>
       </c>
-      <c r="O205" t="s">
+      <c r="O205" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P205">
@@ -10996,7 +11001,7 @@
       <c r="H206">
         <v>404</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J206">
@@ -11005,7 +11010,7 @@
       <c r="K206">
         <v>303</v>
       </c>
-      <c r="L206" t="s">
+      <c r="L206" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M206">
@@ -11014,7 +11019,7 @@
       <c r="N206">
         <v>405</v>
       </c>
-      <c r="O206" t="s">
+      <c r="O206" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P206">
@@ -11046,7 +11051,7 @@
       <c r="H207">
         <v>305</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J207">
@@ -11055,7 +11060,7 @@
       <c r="K207">
         <v>606</v>
       </c>
-      <c r="L207" t="s">
+      <c r="L207" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M207">
@@ -11064,7 +11069,7 @@
       <c r="N207">
         <v>502</v>
       </c>
-      <c r="O207" t="s">
+      <c r="O207" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P207">
@@ -11097,7 +11102,7 @@
       <c r="H208">
         <v>602</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J208">
@@ -11106,7 +11111,7 @@
       <c r="K208">
         <v>608</v>
       </c>
-      <c r="L208" t="s">
+      <c r="L208" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M208">
@@ -11115,7 +11120,7 @@
       <c r="N208">
         <v>501</v>
       </c>
-      <c r="O208" t="s">
+      <c r="O208" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P208">
@@ -11148,7 +11153,7 @@
       <c r="H209">
         <v>608</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J209">
@@ -11157,7 +11162,7 @@
       <c r="K209">
         <v>606</v>
       </c>
-      <c r="L209" t="s">
+      <c r="L209" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M209">
@@ -11166,7 +11171,7 @@
       <c r="N209">
         <v>101</v>
       </c>
-      <c r="O209" t="s">
+      <c r="O209" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P209">
@@ -11199,7 +11204,7 @@
       <c r="H210">
         <v>703</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J210">
@@ -11208,7 +11213,7 @@
       <c r="K210">
         <v>606</v>
       </c>
-      <c r="L210" t="s">
+      <c r="L210" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M210">
@@ -11217,7 +11222,7 @@
       <c r="N210">
         <v>413</v>
       </c>
-      <c r="O210" t="s">
+      <c r="O210" s="2" t="s">
         <v>53</v>
       </c>
       <c r="P210">
@@ -11250,7 +11255,7 @@
       <c r="H211">
         <v>201</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J211">
@@ -11259,7 +11264,7 @@
       <c r="K211">
         <v>416</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L211" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M211">
@@ -11268,7 +11273,7 @@
       <c r="N211">
         <v>411</v>
       </c>
-      <c r="O211" t="s">
+      <c r="O211" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P211">
@@ -11301,7 +11306,7 @@
       <c r="H212">
         <v>302</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J212">
@@ -11310,7 +11315,7 @@
       <c r="K212">
         <v>404</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L212" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M212">
@@ -11319,7 +11324,7 @@
       <c r="N212">
         <v>304</v>
       </c>
-      <c r="O212" t="s">
+      <c r="O212" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P212">
@@ -11343,7 +11348,7 @@
       <c r="E213">
         <v>109</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G213">
@@ -11352,7 +11357,7 @@
       <c r="H213">
         <v>203</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J213">
@@ -11361,7 +11366,7 @@
       <c r="K213">
         <v>606</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L213" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M213">
@@ -11370,7 +11375,7 @@
       <c r="N213">
         <v>411</v>
       </c>
-      <c r="O213" t="s">
+      <c r="O213" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P213">
@@ -11403,7 +11408,7 @@
       <c r="H214">
         <v>607</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J214">
@@ -11412,7 +11417,7 @@
       <c r="K214">
         <v>502</v>
       </c>
-      <c r="L214" t="s">
+      <c r="L214" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M214">
@@ -11421,7 +11426,7 @@
       <c r="N214">
         <v>109</v>
       </c>
-      <c r="O214" t="s">
+      <c r="O214" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P214">
@@ -11430,5 +11435,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>